--- a/Results/Calculation/lda-partial-ner-glove-money.xlsx
+++ b/Results/Calculation/lda-partial-ner-glove-money.xlsx
@@ -432,25 +432,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>0.5111111111111111</v>
       </c>
       <c r="G2">
-        <v>0.75</v>
+        <v>0.7615894039735099</v>
       </c>
       <c r="H2">
-        <v>0.6</v>
+        <v>0.6117021276595744</v>
       </c>
       <c r="I2">
         <v>0.68</v>
@@ -461,25 +461,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C3">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D3">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E3">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F3">
-        <v>0.78</v>
+        <v>0.7723577235772358</v>
       </c>
       <c r="G3">
-        <v>0.86</v>
+        <v>0.8755760368663594</v>
       </c>
       <c r="H3">
-        <v>0.82</v>
+        <v>0.8207343412526997</v>
       </c>
       <c r="I3">
         <v>0.82</v>
@@ -490,28 +490,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C4">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="F4">
-        <v>0.6</v>
+        <v>0.6042780748663101</v>
       </c>
       <c r="G4">
-        <v>0.71</v>
+        <v>0.7337662337662337</v>
       </c>
       <c r="H4">
-        <v>0.65</v>
+        <v>0.6627565982404691</v>
       </c>
       <c r="I4">
-        <v>0.74</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -519,25 +519,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D5">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E5">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F5">
-        <v>0.53</v>
+        <v>0.5327102803738317</v>
       </c>
       <c r="G5">
-        <v>0.88</v>
+        <v>0.8769230769230769</v>
       </c>
       <c r="H5">
-        <v>0.66</v>
+        <v>0.6627906976744186</v>
       </c>
       <c r="I5">
         <v>0.75</v>
